--- a/data/management/Management_information_KAL_2015.xlsx
+++ b/data/management/Management_information_KAL_2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marse\seadrive_root\Tien-Che\My Libraries\PhD_Tien\Project\Briwecs\BRIWECS_Data_Publication\data\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F1F101-1746-4E41-B171-C842E93BDBEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF4694B-B826-D848-92A8-AE0F0BF28A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33440" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BON_2015" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="180">
   <si>
     <t>General information</t>
   </si>
@@ -270,9 +270,6 @@
     <t>1st nitrogen application</t>
   </si>
   <si>
-    <t>N-Düngung KAS</t>
-  </si>
-  <si>
     <t>CCC</t>
   </si>
   <si>
@@ -363,15 +360,6 @@
     <t>1,25 l/ha</t>
   </si>
   <si>
-    <t>50 kg/ha</t>
-  </si>
-  <si>
-    <t>45 kg/ha</t>
-  </si>
-  <si>
-    <t>60 kg/ha</t>
-  </si>
-  <si>
     <t>2015, Schlag IV a</t>
   </si>
   <si>
@@ -571,6 +559,9 @@
   </si>
   <si>
     <t>April/Mai 2015 (BBCH 40-50)</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -840,23 +831,22 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,45 +855,42 @@
     <xf numFmtId="17" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,9 +982,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1035,9 +1022,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,26 +1057,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1122,26 +1092,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1315,41 +1268,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72:D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125"/>
-    <col min="2" max="2" width="39.140625"/>
-    <col min="3" max="3" width="25.42578125"/>
-    <col min="4" max="5" width="11.5703125"/>
-    <col min="6" max="6" width="34.140625"/>
-    <col min="7" max="7" width="20.85546875"/>
-    <col min="8" max="9" width="11.5703125"/>
-    <col min="10" max="10" width="21.140625"/>
-    <col min="11" max="11" width="36.85546875"/>
-    <col min="12" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="43.5"/>
+    <col min="2" max="2" width="39.1640625"/>
+    <col min="3" max="3" width="25.5"/>
+    <col min="4" max="5" width="11.5"/>
+    <col min="6" max="6" width="34.1640625"/>
+    <col min="7" max="7" width="20.83203125"/>
+    <col min="8" max="9" width="11.5"/>
+    <col min="10" max="10" width="21.1640625"/>
+    <col min="11" max="11" width="36.83203125"/>
+    <col min="12" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1357,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1389,15 +1342,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1405,43 +1358,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1449,391 +1402,338 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-    </row>
-    <row r="18" spans="1:13" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:12" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="28"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>80</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="28"/>
-    </row>
-    <row r="22" spans="1:13" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>180</v>
+      <c r="B22" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="C22" s="3">
         <v>2005</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="28"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="37">
         <v>41913</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="28"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="C26" s="3"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>117</v>
+      <c r="B28" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="27"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>0.15</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="37">
         <v>42248</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="27"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>0.08</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="37">
         <v>42248</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="28"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="27"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>0.77</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="37">
         <v>42248</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="28"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="33"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>6.6</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="37">
         <v>42248</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="28"/>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>1.9E-2</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="37">
         <v>42248</v>
       </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="37">
         <v>42248</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="37">
         <v>42248</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="B37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="12">
         <v>42053</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="13">
+      <c r="B38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="12">
         <v>42053</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="12">
         <v>42053</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="12">
         <v>42053</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1847,909 +1747,903 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="22">
         <v>42075</v>
       </c>
-      <c r="D45" s="22">
-        <v>0</v>
-      </c>
-      <c r="E45" s="22">
-        <v>0</v>
-      </c>
-      <c r="F45" s="17" t="s">
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="17">
         <v>42080</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K45" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="22">
         <v>42109</v>
       </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
-        <v>0</v>
-      </c>
-      <c r="F46" s="17" t="s">
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="17">
         <v>42135</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="17" t="s">
+      <c r="H46" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K46" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K46" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="21">
         <v>42151</v>
       </c>
-      <c r="D47" s="22">
-        <v>0</v>
-      </c>
-      <c r="E47" s="22">
-        <v>0</v>
-      </c>
-      <c r="F47" s="17" t="s">
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="17">
         <v>42167</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47" s="19" t="s">
+      <c r="H47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="17" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="21">
-        <v>0</v>
-      </c>
-      <c r="H48" s="21">
-        <v>0</v>
-      </c>
-      <c r="I48" s="21">
-        <v>0</v>
-      </c>
-      <c r="J48" s="19" t="s">
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K48" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="17" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="21">
-        <v>0</v>
-      </c>
-      <c r="H49" s="21">
-        <v>0</v>
-      </c>
-      <c r="I49" s="21">
-        <v>0</v>
-      </c>
-      <c r="J49" s="19" t="s">
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="K49" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="17" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="21">
-        <v>0</v>
-      </c>
-      <c r="H50" s="21">
-        <v>0</v>
-      </c>
-      <c r="I50" s="21">
-        <v>0</v>
-      </c>
-      <c r="J50" s="19" t="s">
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="K50" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="17" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="21">
-        <v>0</v>
-      </c>
-      <c r="H51" s="21">
-        <v>0</v>
-      </c>
-      <c r="I51" s="21">
-        <v>0</v>
-      </c>
-      <c r="J51" s="19"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="13"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="17" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="21">
-        <v>0</v>
-      </c>
-      <c r="H52" s="21">
-        <v>0</v>
-      </c>
-      <c r="I52" s="21">
-        <v>0</v>
-      </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="16">
+        <v>0</v>
+      </c>
+      <c r="H52" s="16">
+        <v>0</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="17" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="21">
-        <v>0</v>
-      </c>
-      <c r="H53" s="21">
-        <v>0</v>
-      </c>
-      <c r="I53" s="21">
-        <v>0</v>
-      </c>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="22">
         <v>42075</v>
       </c>
-      <c r="D56" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="22" t="s">
+      <c r="D56" s="20">
+        <v>50</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="17">
+        <v>42080</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="22">
+        <v>42109</v>
+      </c>
+      <c r="D57" s="20">
+        <v>45</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="17">
+        <v>42135</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="21">
+        <v>42151</v>
+      </c>
+      <c r="D58" s="20">
+        <v>60</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="17">
+        <v>42167</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="16">
+        <v>0</v>
+      </c>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="16">
+        <v>0</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="16">
+        <v>0</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+      <c r="H62" s="16">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="18"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="17">
+        <v>42101</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="J63" s="18"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="17">
+        <v>42110</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J64" s="18"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="22">
+        <v>42075</v>
+      </c>
+      <c r="D67" s="20">
+        <v>50</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G67" s="17">
         <v>42080</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H67" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I67" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="J67" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="22">
+        <v>42109</v>
+      </c>
+      <c r="D68" s="20">
+        <v>45</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="17">
+        <v>42135</v>
+      </c>
+      <c r="H68" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J56" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="25">
-        <v>42109</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="22" t="s">
+      <c r="I68" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="22">
+        <v>42151</v>
+      </c>
+      <c r="D69" s="20">
+        <v>60</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" s="17">
+        <v>42167</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K69" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="17">
+        <v>42101</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="17">
+        <v>42111</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" s="17">
+        <v>42135</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="17">
+        <v>42151</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J73" s="18"/>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" s="17">
+        <v>42101</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="18">
-        <v>42135</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="23">
-        <v>42151</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="18">
-        <v>42167</v>
-      </c>
-      <c r="H58" s="17" t="s">
+      <c r="J74" s="18"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="17">
+        <v>42110</v>
+      </c>
+      <c r="H75" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I58" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J58" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="17">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
-        <v>0</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" s="21">
-        <v>0</v>
-      </c>
-      <c r="H60" s="21">
-        <v>0</v>
-      </c>
-      <c r="I60" s="21">
-        <v>0</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G61" s="21">
-        <v>0</v>
-      </c>
-      <c r="H61" s="21">
-        <v>0</v>
-      </c>
-      <c r="I61" s="21">
-        <v>0</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="21">
-        <v>0</v>
-      </c>
-      <c r="H62" s="21">
-        <v>0</v>
-      </c>
-      <c r="I62" s="21">
-        <v>0</v>
-      </c>
-      <c r="J62" s="19"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="18">
-        <v>42101</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J63" s="19"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="18">
-        <v>42110</v>
-      </c>
-      <c r="H64" s="17" t="s">
+      <c r="I75" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I64" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="25">
-        <v>42075</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G67" s="18">
-        <v>42080</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="25">
-        <v>42109</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" s="18">
-        <v>42135</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I68" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="25">
-        <v>42151</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G69" s="18">
-        <v>42167</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K69" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" s="18">
-        <v>42101</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I70" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="K70" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" s="18">
-        <v>42111</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K71" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="18">
-        <v>42135</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I72" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J72" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G73" s="18">
-        <v>42151</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J73" s="19"/>
-      <c r="K73" s="27"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" s="18">
-        <v>42101</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J74" s="19"/>
-      <c r="K74" s="27"/>
-    </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="18">
-        <v>42110</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I75" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J75" s="19"/>
-      <c r="K75" s="27"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2769,87 +2663,87 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
         <v>127</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" t="s">
         <v>128</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>129</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>130</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D9" t="s">
         <v>131</v>
       </c>
-      <c r="H8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="E9" t="s">
         <v>132</v>
       </c>
-      <c r="J8" t="s">
+      <c r="F9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>134</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" t="s">
         <v>136</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
         <v>138</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="I9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="D10" t="s">
         <v>140</v>
       </c>
-      <c r="K9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M9" t="s">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s">
-        <v>141</v>
-      </c>
-      <c r="O9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>144</v>
-      </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -2861,10 +2755,10 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2873,33 +2767,33 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="34">
+        <v>43224</v>
+      </c>
+      <c r="O10" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>146</v>
+      </c>
+      <c r="R10" t="s">
         <v>147</v>
       </c>
-      <c r="N10" s="38">
-        <v>43224</v>
-      </c>
-      <c r="O10" t="s">
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>148</v>
       </c>
-      <c r="P10" t="s">
+      <c r="D11" t="s">
         <v>149</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="E11" t="s">
         <v>150</v>
-      </c>
-      <c r="R10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" t="s">
-        <v>154</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2911,10 +2805,10 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -2926,33 +2820,33 @@
         <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -2964,10 +2858,10 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2979,33 +2873,33 @@
         <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -3017,10 +2911,10 @@
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -3029,39 +2923,39 @@
         <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P13">
         <v>7</v>
       </c>
       <c r="Q13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="R13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="S13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -3073,10 +2967,10 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3088,24 +2982,24 @@
         <v>8</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3117,10 +3011,10 @@
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3129,24 +3023,24 @@
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3158,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3170,55 +3064,55 @@
         <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3234,9 +3128,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.5"/>
   </cols>
   <sheetData/>
   <printOptions gridLines="1"/>

--- a/data/management/Management_information_KAL_2015.xlsx
+++ b/data/management/Management_information_KAL_2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF4694B-B826-D848-92A8-AE0F0BF28A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5692CB78-045C-8646-8202-C6F9F5FA8209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33440" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Preceding crop</t>
   </si>
   <si>
-    <t>Zuckerrüben</t>
-  </si>
-  <si>
     <t>Pre-Preceding crop</t>
   </si>
   <si>
@@ -285,15 +282,9 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Weizen</t>
-  </si>
-  <si>
     <t>Pre-Pre-Preceding crop</t>
   </si>
   <si>
-    <t>Gerste</t>
-  </si>
-  <si>
     <t>3,0 m</t>
   </si>
   <si>
@@ -562,6 +553,15 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>sugar beet</t>
+  </si>
+  <si>
+    <t>winter wheat</t>
+  </si>
+  <si>
+    <t>winter barley</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1347,7 +1347,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1375,7 +1375,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1391,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="35"/>
       <c r="F20" s="27"/>
@@ -1460,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3">
         <v>2005</v>
@@ -1494,7 +1494,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="C24" s="3"/>
       <c r="F24" s="27"/>
@@ -1506,10 +1506,10 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3"/>
       <c r="F25" s="27"/>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C26" s="3"/>
       <c r="F26" s="27"/>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3"/>
       <c r="F27" s="27"/>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" s="3"/>
       <c r="F28" s="27"/>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="11">
         <v>0.15</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="11">
         <v>0.08</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="11">
         <v>0.77</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="9">
         <v>6.6</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="11">
         <v>1.9E-2</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="C34" s="37">
         <v>42248</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="C35" s="37">
         <v>42248</v>
@@ -1673,19 +1673,19 @@
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C37" s="12">
         <v>42053</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C38" s="12">
         <v>42053</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C39" s="12">
         <v>42053</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C40" s="12">
         <v>42053</v>
@@ -1726,16 +1726,16 @@
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="43" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1751,46 +1751,46 @@
     </row>
     <row r="44" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="F44" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="15" t="s">
+      <c r="K44" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C45" s="22">
         <v>42075</v>
@@ -1800,31 +1800,31 @@
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="17">
         <v>42080</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="22">
         <v>42109</v>
@@ -1834,31 +1834,31 @@
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="17">
         <v>42135</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I46" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J46" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="K46" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="21">
         <v>42151</v>
@@ -1868,119 +1868,119 @@
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="17">
         <v>42167</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="16">
-        <v>0</v>
-      </c>
-      <c r="H48" s="16">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
-        <v>0</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="K48" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L48" s="13"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
-        <v>0</v>
-      </c>
-      <c r="I49" s="16">
-        <v>0</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="K49" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
       <c r="F50" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="16">
-        <v>0</v>
-      </c>
-      <c r="H50" s="16">
-        <v>0</v>
-      </c>
-      <c r="I50" s="16">
-        <v>0</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="K50" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="16">
         <v>0</v>
@@ -1997,14 +1997,14 @@
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -2021,14 +2021,14 @@
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="21"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -2048,46 +2048,46 @@
     </row>
     <row r="55" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="F55" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="G55" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="15" t="s">
+      <c r="K55" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="C56" s="22">
         <v>42075</v>
@@ -2096,34 +2096,34 @@
         <v>50</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G56" s="17">
         <v>42080</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="22">
         <v>42109</v>
@@ -2132,34 +2132,34 @@
         <v>45</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="17">
         <v>42135</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I57" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J57" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J57" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="K57" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="21">
         <v>42151</v>
@@ -2168,38 +2168,38 @@
         <v>60</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" s="17">
         <v>42167</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="16">
@@ -2209,79 +2209,79 @@
         <v>0</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="16">
+        <v>0</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="J60" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="16">
-        <v>0</v>
-      </c>
-      <c r="H60" s="16">
-        <v>0</v>
-      </c>
-      <c r="I60" s="16">
-        <v>0</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="K60" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="16">
+        <v>0</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="16">
-        <v>0</v>
-      </c>
-      <c r="H61" s="16">
-        <v>0</v>
-      </c>
-      <c r="I61" s="16">
-        <v>0</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="K61" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
       <c r="F62" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -2298,23 +2298,23 @@
     </row>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="21"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" s="17">
         <v>42101</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
@@ -2322,23 +2322,23 @@
     </row>
     <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="21"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="F64" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" s="17">
         <v>42110</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
@@ -2357,45 +2357,45 @@
     </row>
     <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="D66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="E66" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="F66" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="G66" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J66" s="15" t="s">
+      <c r="K66" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="22">
         <v>42075</v>
@@ -2404,33 +2404,33 @@
         <v>50</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G67" s="17">
         <v>42080</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="22">
         <v>42109</v>
@@ -2439,33 +2439,33 @@
         <v>45</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="17">
         <v>42135</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I68" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J68" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="K68" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="22">
         <v>42151</v>
@@ -2474,173 +2474,173 @@
         <v>60</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G69" s="17">
         <v>42167</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="22"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G70" s="17">
         <v>42101</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="22"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G71" s="17">
         <v>42111</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="22"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G72" s="17">
         <v>42135</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="22"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G73" s="17">
         <v>42151</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="22"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G74" s="17">
         <v>42101</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J74" s="18"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="22"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G75" s="17">
         <v>42110</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J75" s="18"/>
       <c r="K75" s="24"/>
@@ -2670,80 +2670,80 @@
   <sheetData>
     <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
         <v>123</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>124</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" t="s">
         <v>125</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>126</v>
-      </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>131</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>132</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
         <v>133</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" t="s">
         <v>134</v>
       </c>
-      <c r="H9" t="s">
+      <c r="O9" t="s">
         <v>135</v>
-      </c>
-      <c r="I9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s">
-        <v>137</v>
-      </c>
-      <c r="O9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -2755,10 +2755,10 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2767,33 +2767,33 @@
         <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N10" s="34">
         <v>43224</v>
       </c>
       <c r="O10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10" t="s">
         <v>144</v>
-      </c>
-      <c r="P10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>146</v>
-      </c>
-      <c r="R10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2805,10 +2805,10 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -2820,33 +2820,33 @@
         <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="S11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -2858,10 +2858,10 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2873,33 +2873,33 @@
         <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -2911,10 +2911,10 @@
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2923,39 +2923,39 @@
         <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P13">
         <v>7</v>
       </c>
       <c r="Q13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="S13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="T13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2967,10 +2967,10 @@
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2982,24 +2982,24 @@
         <v>8</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3011,10 +3011,10 @@
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3023,24 +3023,24 @@
         <v>46</v>
       </c>
       <c r="M15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -3052,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3064,55 +3064,55 @@
         <v>47</v>
       </c>
       <c r="M16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
